--- a/NformTester/NformTester/keywordscripts/TST1179_DataPointsDescriptionIsEditable.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1179_DataPointsDescriptionIsEditable.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="861">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3754,14 +3754,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.83.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3850,14 +3842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Unit name"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit name for the managed device assigned by the customer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"My data point description"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3868,6 +3852,25 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"System Name"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End user assigned name for the system</t>
   </si>
 </sst>
 </file>
@@ -4418,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4508,7 +4511,7 @@
         <v>800</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4602,7 +4605,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4661,19 +4664,19 @@
         <v>829</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>832</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>813</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4688,7 +4691,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4708,7 +4711,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -4798,7 +4801,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="4"/>
@@ -4912,7 +4915,7 @@
         <v>56</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="4"/>
@@ -4930,7 +4933,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>589</v>
@@ -4942,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -4966,7 +4969,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>589</v>
@@ -4978,13 +4981,13 @@
         <v>7</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -4998,7 +5001,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>589</v>
@@ -5007,10 +5010,10 @@
         <v>596</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="9"/>
@@ -5024,10 +5027,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -5046,7 +5049,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>589</v>
@@ -5055,10 +5058,10 @@
         <v>596</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="9"/>
@@ -5072,7 +5075,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>589</v>
@@ -5084,7 +5087,7 @@
         <v>7</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I23" s="4" t="b">
         <v>0</v>
@@ -5136,7 +5139,7 @@
         <v>7</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I25" s="4" t="b">
         <v>1</v>
@@ -5224,7 +5227,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="4"/>
@@ -5302,7 +5305,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="4"/>
@@ -5400,7 +5403,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="4"/>
@@ -5414,7 +5417,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>589</v>
@@ -5426,13 +5429,13 @@
         <v>7</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5444,7 +5447,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>589</v>
@@ -5456,13 +5459,13 @@
         <v>7</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -5474,7 +5477,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="4"/>
@@ -5492,7 +5495,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>589</v>
@@ -5504,7 +5507,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -5518,10 +5521,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F41" s="4">
         <v>2</v>
@@ -5540,7 +5543,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>589</v>
@@ -5552,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -5566,7 +5569,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>589</v>
@@ -5590,7 +5593,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>589</v>
@@ -5614,7 +5617,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>548</v>
@@ -5638,7 +5641,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>607</v>
@@ -5662,7 +5665,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="4"/>
@@ -5740,7 +5743,7 @@
         <v>56</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="4"/>
@@ -5838,7 +5841,7 @@
         <v>56</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="4"/>
@@ -5852,7 +5855,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>589</v>
@@ -5864,13 +5867,13 @@
         <v>7</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -5882,7 +5885,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>589</v>
@@ -5894,13 +5897,13 @@
         <v>7</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -5912,7 +5915,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>589</v>
@@ -5936,7 +5939,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>548</v>
@@ -5960,7 +5963,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>607</v>
@@ -5984,7 +5987,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -6050,10 +6053,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>608</v>
@@ -6062,7 +6065,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6076,10 +6079,10 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>213</v>
@@ -6100,7 +6103,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>615</v>
@@ -6124,10 +6127,10 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST1179_DataPointsDescriptionIsEditable.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1179_DataPointsDescriptionIsEditable.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7714" uniqueCount="862">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3871,6 +3871,10 @@
   </si>
   <si>
     <t>End user assigned name for the system</t>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4421,8 +4425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5089,10 +5093,12 @@
       <c r="H23" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="I23" s="4" t="b">
+      <c r="I23" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="J23" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -5141,10 +5147,12 @@
       <c r="H25" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="I25" s="4" t="b">
+      <c r="I25" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="J25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TST1179_DataPointsDescriptionIsEditable.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1179_DataPointsDescriptionIsEditable.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7714" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7715" uniqueCount="862">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3854,18 +3854,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"System Name"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3874,6 +3862,18 @@
   </si>
   <si>
     <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4425,14 +4425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="35.25" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
@@ -4603,7 +4603,7 @@
         <v>805</v>
       </c>
       <c r="B6" s="8">
-        <v>41106</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4648,9 +4648,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>859</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4668,10 +4668,10 @@
         <v>829</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>830</v>
@@ -4686,11 +4686,9 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>808</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4709,8 +4707,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>808</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4729,10 +4731,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4786,7 +4786,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -4805,7 +4805,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="4"/>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -4844,7 +4844,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
@@ -4872,7 +4872,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
@@ -4899,10 +4899,10 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>816</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>56</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="4"/>
@@ -4931,7 +4931,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -4955,7 +4955,7 @@
         <v>834</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -4963,11 +4963,9 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>818</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -4991,7 +4989,7 @@
         <v>834</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -4999,8 +4997,12 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>808</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5027,6 +5029,8 @@
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>839</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J23" s="4" t="b">
         <v>0</v>
@@ -5148,7 +5152,7 @@
         <v>839</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J25" s="4" t="b">
         <v>1</v>
@@ -5313,7 +5317,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="4"/>
@@ -5411,7 +5415,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="4"/>
@@ -5443,7 +5447,7 @@
         <v>834</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5751,7 +5755,7 @@
         <v>56</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="4"/>
@@ -5849,7 +5853,7 @@
         <v>56</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="4"/>
@@ -5881,7 +5885,7 @@
         <v>834</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
